--- a/plants_insects/age_control_aphids.xlsx
+++ b/plants_insects/age_control_aphids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/plants_insects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3505A240-F32A-5B42-9C05-AE1749F57FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6319D40F-4280-2E4B-A0D6-B48BFC6AD860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="26160" windowHeight="17440" xr2:uid="{C91115F0-5994-2D41-B942-0D19831798BA}"/>
+    <workbookView xWindow="5340" yWindow="0" windowWidth="26160" windowHeight="17440" xr2:uid="{C91115F0-5994-2D41-B942-0D19831798BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="21">
   <si>
     <t>day #</t>
   </si>
@@ -88,13 +88,25 @@
   </si>
   <si>
     <t>Thursday Start</t>
+  </si>
+  <si>
+    <t>Monday Start</t>
+  </si>
+  <si>
+    <t>Friday Start</t>
+  </si>
+  <si>
+    <t>Saturday Start</t>
+  </si>
+  <si>
+    <t>Sunday Start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,16 +133,72 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E93FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE88FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC77CFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF629CFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDB72FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA6AF1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF565E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -153,11 +221,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,7 +279,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,10 +649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D84913D-DA06-5A45-AE5E-7E7207C8F24E}">
-  <dimension ref="A1:K9"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,24 +674,19 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="E1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,22 +705,13 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>-1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -593,27 +720,18 @@
         <v>-1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -622,27 +740,18 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -651,27 +760,18 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -680,27 +780,18 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -709,27 +800,18 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="3">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -738,27 +820,18 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>12</v>
@@ -767,28 +840,464 @@
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>